--- a/ProductMatch/BDI/ProductMatch_2014.xlsx
+++ b/ProductMatch/BDI/ProductMatch_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fraol.tesfaye\Desktop\ProductMatch\BDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBFB67C-CFF5-4795-BFBB-0110B7F9544A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148F191B-6338-40E9-917C-0D16AA5C4E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5738F115-A6C6-4CF9-93A0-DE03716E7BA4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>PRODUITS DE L'AGRICULTURE VIVRIERE</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>94; 95; 96; 97</t>
+  </si>
+  <si>
+    <t>CPC21Description</t>
   </si>
 </sst>
 </file>
@@ -168,8 +171,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -228,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -236,6 +247,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,30 +562,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D822DE23-7DE6-4259-ACB2-F3518D30E721}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -584,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -595,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -606,7 +622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -617,7 +633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -628,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -639,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -650,7 +666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -661,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -672,7 +688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -683,7 +699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -694,7 +710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -705,7 +721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -716,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -727,7 +743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -817,5 +833,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>